--- a/app/files/Claim Report - template.xlsx
+++ b/app/files/Claim Report - template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B110912-508F-5D4B-8BAB-31EB3070146F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451C1F80-C1CF-274C-A576-DAD857B10531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="846" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-920" windowWidth="38400" windowHeight="21100" tabRatio="846" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="33" r:id="rId1"/>
@@ -107,9 +107,6 @@
     <t>Class</t>
   </si>
   <si>
-    <t>PART TIME LECTURERS' REQUISITION REPORT</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>Cost (RM)</t>
+  </si>
+  <si>
+    <t>PART TIME LECTURERS' CLAIM REPORT</t>
   </si>
 </sst>
 </file>
@@ -537,14 +537,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -574,6 +574,845 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Overall!$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C668-BE46-9C82-6146D828F7D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1171394768"/>
+        <c:axId val="1171353808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1171394768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1171353808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1171353808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1171394768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr baseline="0">
+          <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>37451</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>47091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>488965</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>64891</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9914C62-E9CE-28A3-3AAC-29B26B227714}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -879,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC8F486-F76A-CA46-B2DB-FBA1C41A62CA}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -891,29 +1730,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="A1" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
-        <v>3</v>
+      <c r="A3" s="40" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="1"/>
@@ -925,36 +1764,36 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="D6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>12</v>
-      </c>
       <c r="H6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -980,7 +1819,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="15"/>
       <c r="E9" s="4"/>
@@ -989,21 +1828,21 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>9</v>
-      </c>
       <c r="D10" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
@@ -1011,7 +1850,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -1019,7 +1858,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -1027,7 +1866,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
@@ -1035,7 +1874,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
@@ -1043,7 +1882,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
@@ -1051,7 +1890,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
@@ -1059,7 +1898,7 @@
     </row>
     <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
@@ -1076,6 +1915,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1083,8 +1923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B3DB79-836A-9D44-BD6E-C1ED8B57ED2A}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1098,37 +1938,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="A1" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
-        <v>3</v>
+      <c r="A4" s="40" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="1"/>
@@ -1139,33 +1979,33 @@
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="E7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1188,7 +2028,7 @@
     </row>
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="15"/>
       <c r="E10" s="4"/>
@@ -1200,20 +2040,20 @@
         <v>1</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="4"/>
@@ -1221,7 +2061,7 @@
     </row>
     <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="4"/>
@@ -1229,28 +2069,28 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="2"/>
@@ -1296,7 +2136,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1310,37 +2150,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="A1" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
-        <v>3</v>
+      <c r="A4" s="40" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="1"/>
@@ -1351,33 +2191,33 @@
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="E7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1400,7 +2240,7 @@
     </row>
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="15"/>
       <c r="E10" s="4"/>
@@ -1412,20 +2252,20 @@
         <v>1</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="4"/>
@@ -1433,7 +2273,7 @@
     </row>
     <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="4"/>
@@ -1441,28 +2281,28 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="2"/>
@@ -1508,7 +2348,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1522,37 +2362,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="A1" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
-        <v>3</v>
+      <c r="A4" s="40" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="1"/>
@@ -1563,33 +2403,33 @@
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="E7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1612,7 +2452,7 @@
     </row>
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="15"/>
       <c r="E10" s="4"/>
@@ -1624,20 +2464,20 @@
         <v>1</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="4"/>
@@ -1645,7 +2485,7 @@
     </row>
     <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="4"/>
@@ -1653,28 +2493,28 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="2"/>
@@ -1720,7 +2560,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1734,37 +2574,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="A1" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
-        <v>3</v>
+      <c r="A4" s="40" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="1"/>
@@ -1775,33 +2615,33 @@
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="E7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1824,7 +2664,7 @@
     </row>
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="15"/>
       <c r="E10" s="4"/>
@@ -1836,20 +2676,20 @@
         <v>1</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="4"/>
@@ -1857,7 +2697,7 @@
     </row>
     <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="4"/>
@@ -1865,28 +2705,28 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="2"/>
@@ -1932,7 +2772,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1946,37 +2786,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="A1" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
-        <v>3</v>
+      <c r="A4" s="40" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="1"/>
@@ -1987,33 +2827,33 @@
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="E7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2036,7 +2876,7 @@
     </row>
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="15"/>
       <c r="E10" s="4"/>
@@ -2048,20 +2888,20 @@
         <v>1</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="4"/>
@@ -2069,7 +2909,7 @@
     </row>
     <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="4"/>
@@ -2077,28 +2917,28 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="2"/>
@@ -2144,7 +2984,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2158,37 +2998,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="A1" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
-        <v>3</v>
+      <c r="A4" s="40" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="1"/>
@@ -2199,33 +3039,33 @@
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="E7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2248,7 +3088,7 @@
     </row>
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="15"/>
       <c r="E10" s="4"/>
@@ -2260,20 +3100,20 @@
         <v>1</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="4"/>
@@ -2281,7 +3121,7 @@
     </row>
     <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="4"/>
@@ -2289,28 +3129,28 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="2"/>
@@ -2356,7 +3196,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2370,37 +3210,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="A1" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
-        <v>3</v>
+      <c r="A4" s="40" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="1"/>
@@ -2411,33 +3251,33 @@
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="E7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2460,7 +3300,7 @@
     </row>
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="15"/>
       <c r="E10" s="4"/>
@@ -2472,20 +3312,20 @@
         <v>1</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="4"/>
@@ -2493,7 +3333,7 @@
     </row>
     <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="4"/>
@@ -2501,28 +3341,28 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="2"/>
@@ -2567,8 +3407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52350D63-41D9-EA47-BB9C-68858D5680CB}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="88" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2582,37 +3422,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="A1" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
-        <v>3</v>
+      <c r="A4" s="40" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="1"/>
@@ -2623,33 +3463,33 @@
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="E7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2672,7 +3512,7 @@
     </row>
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="15"/>
       <c r="E10" s="4"/>
@@ -2684,20 +3524,20 @@
         <v>1</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="4"/>
@@ -2705,7 +3545,7 @@
     </row>
     <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="4"/>
@@ -2713,28 +3553,28 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="2"/>
